--- a/Sun Sensor/docs/sun sensor pinout.xlsx
+++ b/Sun Sensor/docs/sun sensor pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hites\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2623E5B2-3FB5-4E38-AE8E-D9553A78E848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41B7E7B-5D0D-42A0-B174-151119999D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{15B948A8-2C28-4559-A2B2-26FFD106654A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{15B948A8-2C28-4559-A2B2-26FFD106654A}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>PB6</t>
   </si>
@@ -233,13 +233,88 @@
   </si>
   <si>
     <t>Digital INPUT: Active low input</t>
+  </si>
+  <si>
+    <t>Register Map</t>
+  </si>
+  <si>
+    <t>Vdd</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>position_x_psd1</t>
+  </si>
+  <si>
+    <t>position_y_psd1</t>
+  </si>
+  <si>
+    <t>intensity_psd1</t>
+  </si>
+  <si>
+    <t>position_x_psd2</t>
+  </si>
+  <si>
+    <t>position_y_psd2</t>
+  </si>
+  <si>
+    <t>intensity_psd2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +360,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -333,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -400,6 +481,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -723,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1822EB63-91EA-4634-A7A3-484CFF8A8271}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -896,10 +989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D3D7FF-2509-42C7-8964-7E649271A68A}">
-  <dimension ref="B1:F15"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -910,10 +1003,13 @@
     <col min="4" max="4" width="7.73046875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.53125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="11"/>
+    <col min="7" max="10" width="9.06640625" style="11"/>
+    <col min="11" max="11" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
@@ -929,189 +1025,339 @@
       <c r="F1" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="13" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="E11" s="12"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="E12" s="12"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="17" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>65</v>
       </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.45">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.45">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.45">
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.45">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Sun Sensor/docs/sun sensor pinout.xlsx
+++ b/Sun Sensor/docs/sun sensor pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hites\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41B7E7B-5D0D-42A0-B174-151119999D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68670A9B-4108-46DF-A864-F1E5CF21EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{15B948A8-2C28-4559-A2B2-26FFD106654A}"/>
   </bookViews>
@@ -414,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,16 +482,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +983,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D3D7FF-2509-42C7-8964-7E649271A68A}">
-  <dimension ref="B1:M20"/>
+  <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
@@ -1009,7 +1003,7 @@
     <col min="13" max="16384" width="9.06640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
@@ -1025,14 +1019,11 @@
       <c r="F1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
         <v>52</v>
       </c>
@@ -1045,16 +1036,14 @@
       <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
@@ -1067,16 +1056,14 @@
       <c r="E4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="13" t="s">
         <v>54</v>
       </c>
@@ -1089,16 +1076,14 @@
       <c r="E5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>55</v>
       </c>
@@ -1111,16 +1096,14 @@
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>56</v>
       </c>
@@ -1133,16 +1116,14 @@
       <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>57</v>
       </c>
@@ -1155,16 +1136,14 @@
       <c r="E8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
@@ -1177,16 +1156,14 @@
       <c r="E9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="13" t="s">
         <v>59</v>
       </c>
@@ -1199,16 +1176,14 @@
       <c r="E10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1216,16 +1191,14 @@
         <v>11</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
@@ -1233,16 +1206,14 @@
         <v>9</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
@@ -1253,16 +1224,14 @@
         <v>48</v>
       </c>
       <c r="E13" s="15"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
@@ -1273,16 +1242,14 @@
         <v>48</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1293,16 +1260,14 @@
         <v>48</v>
       </c>
       <c r="E15" s="15"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="17" t="s">
         <v>0</v>
       </c>
@@ -1318,46 +1283,28 @@
       <c r="F16" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.45">
-      <c r="J17" s="23"/>
-      <c r="K17" s="23" t="s">
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.45">
-      <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.45">
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.45">
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
